--- a/MainTop/сроки доставки/сроки доставки СДЕК.xlsx
+++ b/MainTop/сроки доставки/сроки доставки СДЕК.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\сроки доставки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A92C289-9BA3-4A99-84B5-18A147DDBEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300509F8-4270-441C-BC95-C69659E7A599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Екатеринбург, Wildberries Перспективная</t>
   </si>
@@ -34,19 +34,38 @@
   </si>
   <si>
     <t>Электросталь, Wildberries Электросталь</t>
+  </si>
+  <si>
+    <t>Воронеж</t>
+  </si>
+  <si>
+    <t>Котовск</t>
+  </si>
+  <si>
+    <t>Сарапул</t>
+  </si>
+  <si>
+    <t>Невинномысск</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,9 +88,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -352,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -370,18 +390,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f>C3+3</f>
-        <v>3</v>
-      </c>
-    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
@@ -392,6 +400,38 @@
       <c r="D4">
         <f>C4+5</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>C8+3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
